--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP3-4matlab/NORTRIP_model_public_v3_4/model_parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE25BA7-B223-7A42-9242-5411C8746D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03647DDD-F359-7047-BE13-5543D7ED08F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1020" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -5298,7 +5298,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5585,10 +5585,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9900,8 +9897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10303,7 +10300,7 @@
       <c r="C29" s="116" t="s">
         <v>435</v>
       </c>
-      <c r="D29" s="118">
+      <c r="D29" s="117">
         <v>0</v>
       </c>
     </row>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03647DDD-F359-7047-BE13-5543D7ED08F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97F3C65-0F74-2245-BFCC-A311DA6C90DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5947,8 +5947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView topLeftCell="A12" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9897,8 +9897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97F3C65-0F74-2245-BFCC-A311DA6C90DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF33F54-159A-C845-B328-9B8FD6AF8951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -9897,8 +9897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10554,7 +10554,7 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF33F54-159A-C845-B328-9B8FD6AF8951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AAEB51-561A-8842-A913-BAEAAA775727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5947,7 +5947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -9897,8 +9897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AAEB51-561A-8842-A913-BAEAAA775727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70172C07-F567-924A-B2F9-939428EF5960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="19240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -9897,7 +9897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -10554,8 +10554,8 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70172C07-F567-924A-B2F9-939428EF5960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31E0BB6-E9F7-904D-A563-444800AA145D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="19240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10555,7 +10555,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31E0BB6-E9F7-904D-A563-444800AA145D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0D0ADC-8E05-3B4E-8225-792A1358B297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="500" windowWidth="33600" windowHeight="19240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="-960" windowWidth="33600" windowHeight="19240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -10554,8 +10554,8 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0D0ADC-8E05-3B4E-8225-792A1358B297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D2EDFA-E0E2-064C-A65C-DF1F9CE9CE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33600" yWindow="-960" windowWidth="33600" windowHeight="19240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10554,8 +10554,8 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D2EDFA-E0E2-064C-A65C-DF1F9CE9CE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE6CFC9-590F-2A4F-8FEC-C9FDE865556E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33600" yWindow="-960" windowWidth="33600" windowHeight="19240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5947,8 +5947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A56" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10555,7 +10555,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE6CFC9-590F-2A4F-8FEC-C9FDE865556E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B647EC3D-A09D-DF4E-84A8-C77B2BBB737C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="-960" windowWidth="33600" windowHeight="19240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="-960" windowWidth="33600" windowHeight="19240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -5947,8 +5947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10554,8 +10554,8 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B647EC3D-A09D-DF4E-84A8-C77B2BBB737C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1442DFA6-7FF4-394E-961B-E83ABB22A074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="-960" windowWidth="33600" windowHeight="19240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="-960" windowWidth="33600" windowHeight="19240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -5947,7 +5947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="180" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A146" zoomScale="180" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
@@ -9897,8 +9897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1442DFA6-7FF4-394E-961B-E83ABB22A074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3965B41C-5DCD-844E-9B33-1522CBDE19BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="-960" windowWidth="33600" windowHeight="19240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33460" yWindow="2740" windowWidth="33600" windowHeight="19240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="443">
   <si>
     <t>Road wear</t>
   </si>
@@ -4633,7 +4633,22 @@
     <t>forecast_hour</t>
   </si>
   <si>
-    <t>Set forecast hour (0 = no forecast)</t>
+    <t>FORECAST</t>
+  </si>
+  <si>
+    <t>Set length of forecast in hours (0 = no forecast)</t>
+  </si>
+  <si>
+    <t>use_observed_temperature_init_flag</t>
+  </si>
+  <si>
+    <t>Explicitly set the initial temperature for the forecast to observed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forecast_type_flag      </t>
+  </si>
+  <si>
+    <t>1 is normal forecast, 2 is persistence, 3 is bias correction from last obs, 4 is interpolated trend (last two measurements) bias correction</t>
   </si>
 </sst>
 </file>
@@ -4963,7 +4978,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -5291,6 +5306,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5298,7 +5324,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5588,6 +5614,9 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9895,10 +9924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10277,179 +10306,173 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="99" t="s">
+        <v>437</v>
+      </c>
+      <c r="B28" s="100"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="100"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="102" t="s">
         <v>436</v>
       </c>
-      <c r="B28" s="103">
-        <v>2</v>
-      </c>
-      <c r="C28" s="102" t="s">
-        <v>437</v>
-      </c>
-      <c r="D28" s="103">
+      <c r="B29" s="103">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="116" t="s">
+      <c r="C29" s="102" t="s">
+        <v>438</v>
+      </c>
+      <c r="D29" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="116" t="s">
         <v>434</v>
       </c>
-      <c r="B29" s="117">
-        <v>1</v>
-      </c>
-      <c r="C29" s="116" t="s">
+      <c r="B30" s="117">
+        <v>1</v>
+      </c>
+      <c r="C30" s="116" t="s">
         <v>435</v>
       </c>
-      <c r="D29" s="117">
+      <c r="D30" s="117">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="99" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="102" t="s">
+        <v>439</v>
+      </c>
+      <c r="B31" s="103">
+        <v>0</v>
+      </c>
+      <c r="C31" s="102" t="s">
+        <v>440</v>
+      </c>
+      <c r="D31" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="116" t="s">
+        <v>441</v>
+      </c>
+      <c r="B32" s="117">
+        <v>1</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>442</v>
+      </c>
+      <c r="D32" s="117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="116" t="s">
+        <v>434</v>
+      </c>
+      <c r="B33" s="117">
+        <v>1</v>
+      </c>
+      <c r="C33" s="116" t="s">
+        <v>435</v>
+      </c>
+      <c r="D33" s="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="100"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="100"/>
-    </row>
-    <row r="31" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="102" t="s">
-        <v>271</v>
-      </c>
-      <c r="B31" s="103">
-        <v>1</v>
-      </c>
-      <c r="C31" s="102" t="s">
-        <v>273</v>
-      </c>
-      <c r="D31" s="103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="102" t="s">
-        <v>272</v>
-      </c>
-      <c r="B32" s="103">
-        <v>1</v>
-      </c>
-      <c r="C32" s="102" t="s">
-        <v>274</v>
-      </c>
-      <c r="D32" s="103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="103">
-        <v>1</v>
-      </c>
-      <c r="C33" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="103">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="103">
-        <v>1</v>
-      </c>
-      <c r="C34" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="103">
-        <v>1</v>
-      </c>
+      <c r="B34" s="100"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="100"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="102" t="s">
-        <v>72</v>
+        <v>271</v>
       </c>
       <c r="B35" s="103">
         <v>1</v>
       </c>
       <c r="C35" s="102" t="s">
-        <v>71</v>
+        <v>273</v>
       </c>
       <c r="D35" s="103">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="102" t="s">
-        <v>52</v>
+        <v>272</v>
       </c>
       <c r="B36" s="103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="102" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D36" s="103">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="102" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B37" s="103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="102" t="s">
-        <v>393</v>
+        <v>53</v>
       </c>
       <c r="D37" s="103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="102" t="s">
-        <v>388</v>
+        <v>51</v>
       </c>
       <c r="B38" s="103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="102" t="s">
-        <v>394</v>
+        <v>54</v>
       </c>
       <c r="D38" s="103">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0.15</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="102" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B39" s="103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="102" t="s">
-        <v>322</v>
+        <v>71</v>
       </c>
       <c r="D39" s="103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="102" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B40" s="103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="102" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="D40" s="103">
         <v>1</v>
@@ -10457,90 +10480,147 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="102" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="B41" s="103">
         <v>0</v>
       </c>
       <c r="C41" s="102" t="s">
-        <v>268</v>
+        <v>393</v>
       </c>
       <c r="D41" s="103">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="100"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="100"/>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="102" t="s">
+        <v>388</v>
+      </c>
+      <c r="B42" s="103">
+        <v>0</v>
+      </c>
+      <c r="C42" s="102" t="s">
+        <v>394</v>
+      </c>
+      <c r="D42" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="102" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B43" s="103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C43" s="102" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="D43" s="103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="102" t="s">
-        <v>428</v>
+        <v>43</v>
       </c>
       <c r="B44" s="103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="102" t="s">
-        <v>429</v>
+        <v>321</v>
       </c>
       <c r="D44" s="103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="102" t="s">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="B45" s="103">
         <v>0</v>
       </c>
       <c r="C45" s="102" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="D45" s="103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="99" t="s">
-        <v>210</v>
+        <v>59</v>
       </c>
       <c r="B46" s="100"/>
       <c r="C46" s="101"/>
       <c r="D46" s="100"/>
     </row>
-    <row r="47" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="103">
+        <v>2</v>
+      </c>
+      <c r="C47" s="102" t="s">
+        <v>308</v>
+      </c>
+      <c r="D47" s="103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="102" t="s">
+        <v>428</v>
+      </c>
+      <c r="B48" s="103">
+        <v>0</v>
+      </c>
+      <c r="C48" s="102" t="s">
+        <v>429</v>
+      </c>
+      <c r="D48" s="103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="103">
+        <v>0</v>
+      </c>
+      <c r="C49" s="102" t="s">
+        <v>227</v>
+      </c>
+      <c r="D49" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" s="100"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="100"/>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="B47" s="103">
+      <c r="B51" s="103">
         <v>0</v>
       </c>
-      <c r="C47" s="102" t="s">
+      <c r="C51" s="102" t="s">
         <v>405</v>
       </c>
-      <c r="D47" s="103">
+      <c r="D51" s="103">
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3965B41C-5DCD-844E-9B33-1522CBDE19BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881E0522-EEC8-0C41-B8E3-63F738727BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33460" yWindow="2740" windowWidth="33600" windowHeight="19240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="443">
   <si>
     <t>Road wear</t>
   </si>
@@ -9926,8 +9926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="182" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10370,36 +10370,36 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="116" t="s">
-        <v>434</v>
-      </c>
-      <c r="B33" s="117">
-        <v>1</v>
-      </c>
-      <c r="C33" s="116" t="s">
-        <v>435</v>
-      </c>
-      <c r="D33" s="117">
-        <v>0</v>
-      </c>
+      <c r="A33" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="100"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="100"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="100"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="100"/>
+      <c r="A34" s="102" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" s="103">
+        <v>1</v>
+      </c>
+      <c r="C34" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="D34" s="103">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="102" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B35" s="103">
         <v>1</v>
       </c>
       <c r="C35" s="102" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D35" s="103">
         <v>1</v>
@@ -10407,13 +10407,13 @@
     </row>
     <row r="36" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="102" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="B36" s="103">
         <v>1</v>
       </c>
       <c r="C36" s="102" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
       <c r="D36" s="103">
         <v>1</v>
@@ -10421,13 +10421,13 @@
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="103">
         <v>1</v>
       </c>
       <c r="C37" s="102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D37" s="103">
         <v>1</v>
@@ -10435,13 +10435,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="102" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B38" s="103">
         <v>1</v>
       </c>
       <c r="C38" s="102" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D38" s="103">
         <v>1</v>
@@ -10452,13 +10452,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="102" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B39" s="103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="102" t="s">
-        <v>71</v>
+        <v>267</v>
       </c>
       <c r="D39" s="103">
         <v>1</v>
@@ -10466,27 +10466,27 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="102" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B40" s="103">
         <v>0</v>
       </c>
       <c r="C40" s="102" t="s">
-        <v>267</v>
+        <v>393</v>
       </c>
       <c r="D40" s="103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="102" t="s">
-        <v>41</v>
+        <v>388</v>
       </c>
       <c r="B41" s="103">
         <v>0</v>
       </c>
       <c r="C41" s="102" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D41" s="103">
         <v>0</v>
@@ -10494,13 +10494,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="102" t="s">
-        <v>388</v>
+        <v>42</v>
       </c>
       <c r="B42" s="103">
         <v>0</v>
       </c>
       <c r="C42" s="102" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="D42" s="103">
         <v>0</v>
@@ -10508,118 +10508,105 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="102" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D43" s="103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="102" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="B44" s="103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="102" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="D44" s="103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="102" t="s">
-        <v>198</v>
-      </c>
-      <c r="B45" s="103">
-        <v>0</v>
-      </c>
-      <c r="C45" s="102" t="s">
-        <v>268</v>
-      </c>
-      <c r="D45" s="103">
-        <v>0</v>
-      </c>
+      <c r="A45" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="100"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="100"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="100"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="100"/>
+      <c r="A46" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="103">
+        <v>2</v>
+      </c>
+      <c r="C46" s="102" t="s">
+        <v>308</v>
+      </c>
+      <c r="D46" s="103">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="102" t="s">
-        <v>36</v>
+        <v>428</v>
       </c>
       <c r="B47" s="103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C47" s="102" t="s">
-        <v>308</v>
+        <v>429</v>
       </c>
       <c r="D47" s="103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="102" t="s">
-        <v>428</v>
+        <v>37</v>
       </c>
       <c r="B48" s="103">
         <v>0</v>
       </c>
       <c r="C48" s="102" t="s">
-        <v>429</v>
+        <v>227</v>
       </c>
       <c r="D48" s="103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" s="100"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="100"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" s="103">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="103">
+      <c r="C50" s="102" t="s">
+        <v>405</v>
+      </c>
+      <c r="D50" s="103">
         <v>0</v>
       </c>
-      <c r="C49" s="102" t="s">
-        <v>227</v>
-      </c>
-      <c r="D49" s="103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="99" t="s">
-        <v>210</v>
-      </c>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="100"/>
-    </row>
-    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="102" t="s">
-        <v>211</v>
-      </c>
-      <c r="B51" s="103">
-        <v>0</v>
-      </c>
-      <c r="C51" s="102" t="s">
-        <v>405</v>
-      </c>
-      <c r="D51" s="103">
-        <v>0</v>
-      </c>
-    </row>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881E0522-EEC8-0C41-B8E3-63F738727BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8710E2-EF1B-3544-BF3F-6DD75FD1C3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21000" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -9926,8 +9926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10469,7 +10469,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="102" t="s">
         <v>393</v>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8710E2-EF1B-3544-BF3F-6DD75FD1C3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F587D0-30CD-2542-B9FD-579B7EF6D490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21000" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="-19840" windowWidth="30340" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -9926,8 +9926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F587D0-30CD-2542-B9FD-579B7EF6D490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B3EADF-B590-3A44-9FA5-E5B2E7CBA85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="-19840" windowWidth="30340" windowHeight="15980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21000" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -5976,8 +5976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q190"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" zoomScale="180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView topLeftCell="A143" zoomScale="180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9927,7 +9927,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B3EADF-B590-3A44-9FA5-E5B2E7CBA85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F018D16-0DDC-5744-861B-26751173C739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21000" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-700" yWindow="-21000" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -9927,7 +9927,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10561,7 +10561,7 @@
         <v>428</v>
       </c>
       <c r="B47" s="103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="102" t="s">
         <v>429</v>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F018D16-0DDC-5744-861B-26751173C739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8165A7D-B54E-3940-B59D-D8B2D46ABF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-700" yWindow="-21000" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9927,7 +9927,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="181" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10561,7 +10561,7 @@
         <v>428</v>
       </c>
       <c r="B47" s="103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" s="102" t="s">
         <v>429</v>
@@ -10575,7 +10575,7 @@
         <v>37</v>
       </c>
       <c r="B48" s="103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C48" s="102" t="s">
         <v>227</v>

--- a/model_parameters/Road_dust_parameter_table_v11.xlsx
+++ b/model_parameters/Road_dust_parameter_table_v11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindredenby/Documents/metrologisk/NORTRIP-python/model_parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8165A7D-B54E-3940-B59D-D8B2D46ABF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACDD3CF-0E9B-4144-BFE9-9A332924AB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-700" yWindow="-21000" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-700" yWindow="-21100" windowWidth="33600" windowHeight="19840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -9926,7 +9926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="181" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="181" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -10575,7 +10575,7 @@
         <v>37</v>
       </c>
       <c r="B48" s="103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C48" s="102" t="s">
         <v>227</v>
